--- a/CASUAL/LA CTO/BRIZUELA, LENNIE.xlsx
+++ b/CASUAL/LA CTO/BRIZUELA, LENNIE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2467E565-1698-466D-B2FD-126F4B36DB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230880B8-1901-4D26-A608-67743EC7605D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
   <si>
     <t>PERIOD</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>11/8,9/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -731,15 +734,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -752,11 +746,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2988,7 +2991,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K144" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K145" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
@@ -3396,12 +3399,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K144"/>
+  <dimension ref="A2:K145"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A54" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A90" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3431,14 +3434,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3449,14 +3452,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3469,16 +3472,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3504,18 +3507,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3562,7 +3565,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>41.99</v>
+        <v>45.74</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3572,7 +3575,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>87.5</v>
+        <v>90.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -5390,13 +5393,15 @@
         <v>45231</v>
       </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -5408,13 +5413,15 @@
         <v>45261</v>
       </c>
       <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G97" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
@@ -5422,8 +5429,8 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40">
-        <v>45292</v>
+      <c r="A98" s="48" t="s">
+        <v>103</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5441,25 +5448,33 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
+        <v>45292</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D99" s="39"/>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="39"/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H99" s="39">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="49">
+        <v>45334</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5477,7 +5492,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5495,7 +5510,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5513,7 +5528,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5531,7 +5546,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5549,7 +5564,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5567,7 +5582,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5585,7 +5600,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5603,7 +5618,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5621,7 +5636,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5639,7 +5654,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5657,7 +5672,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5675,7 +5690,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5693,7 +5708,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5711,7 +5726,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5729,7 +5744,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5747,7 +5762,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5765,7 +5780,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5783,7 +5798,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5801,7 +5816,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5819,7 +5834,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5837,7 +5852,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5855,7 +5870,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5873,7 +5888,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5891,7 +5906,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5909,7 +5924,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5927,7 +5942,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5945,7 +5960,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5963,7 +5978,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5981,7 +5996,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5999,7 +6014,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -6017,7 +6032,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -6035,7 +6050,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -6053,7 +6068,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -6071,7 +6086,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -6089,7 +6104,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -6107,7 +6122,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -6125,7 +6140,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -6143,7 +6158,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -6161,7 +6176,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -6179,7 +6194,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -6196,7 +6211,9 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="40"/>
+      <c r="A141" s="40">
+        <v>46569</v>
+      </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
       <c r="D141" s="39"/>
@@ -6244,34 +6261,50 @@
       <c r="K143" s="20"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A144" s="41"/>
-      <c r="B144" s="15"/>
-      <c r="C144" s="42"/>
-      <c r="D144" s="43"/>
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="15"/>
-      <c r="G144" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H144" s="43"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
       <c r="I144" s="9"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="15"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="41"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="42"/>
+      <c r="D145" s="43"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="43"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="12"/>
+      <c r="K145" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
@@ -6306,7 +6339,7 @@
   </sheetPr>
   <dimension ref="A2:K132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4056" topLeftCell="A25" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
       <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
@@ -6340,14 +6373,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -6361,14 +6394,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -6381,17 +6414,17 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="55" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>CTO</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -6417,18 +6450,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
